--- a/bot/data/files/to_send/status_file.xlsx
+++ b/bot/data/files/to_send/status_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,171 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Паша</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Терехов</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ВСОШ по китайскому языку</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Китайский язык</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Лаврещук</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ВСОШ по истории</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Черкалина</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ВСОШ по испанскому языку</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Испанский язык</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Лаврещук</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ВСОШ по искусству</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Искусство МХК</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Лаврещук</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11А</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ВСОШ по китайскому языку</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Китайский язык</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bot/data/files/to_send/status_file.xlsx
+++ b/bot/data/files/to_send/status_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Паша</t>
+          <t>Назарбек</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Терехов</t>
+          <t>Эрназаров</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>5К</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ВСОШ по китайскому языку</t>
+          <t>ВСОШ по математике</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Китайский язык</t>
+          <t>Математика</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -506,27 +506,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лаврещук</t>
+          <t>Евдокимова</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>9Д</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ВСОШ по истории</t>
+          <t>ВСОШ по физике</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>История</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -539,27 +539,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Черкалина</t>
+          <t>Евдокимова</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>9Д</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ВСОШ по испанскому языку</t>
+          <t>ВСОШ по математике</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Испанский язык</t>
+          <t>Математика</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -572,27 +572,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Лаврещук</t>
+          <t>Евдокимова</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>9Д</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ВСОШ по искусству</t>
+          <t>ВСОШ по информатике</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Искусство МХК</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -605,31 +605,1054 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Лаврещук</t>
+          <t>Евдокимова</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11А</t>
+          <t>9Д</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ВСОШ по китайскому языку</t>
+          <t>ВСОШ по химии</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Китайский язык</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ВСОШ по русскому языку</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ВСОШ по литературе</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ВСОШ по праву</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Право</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ВСОШ по обществознанию</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ВСОШ по экологии</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Лиза</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ляленкова</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9К</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ВСОШ по экономике</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Экономика</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Маша</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Сергачева</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6Б</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Макарченкова</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ВСОШ по биологии</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Макарченкова</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ВСОШ по химии</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Титова</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ВСОШ по информатике</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Титова</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Титова</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ВСОШ по русскому языку</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Титова</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10Д</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ВСОШ по физике</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8Д</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ВСОШ по биологии</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8Д</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ВСОШ по астрономии</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Астрономия</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8Д</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ВСОШ по физике</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8Д</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ВСОШ по химии</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Дарья</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8Д</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ВСОШ по литературе</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ВСОШ по английскому языку</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Английский язык</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ВСОШ по биологии</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Биология</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ВСОШ по географии</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ВСОШ по информатике</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ВСОШ по истории</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ВСОШ по литературе</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Литература</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ВСОШ по математике</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ВСОШ по ОБЖ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ОБЖ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ВСОШ по обществознанию</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ВСОШ по праву</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Право</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ВСОШ по русскому языку</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Зарегистрирован</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Маслов</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5Н</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ВСОШ по экологии</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>Зарегистрирован</t>
         </is>
